--- a/Test Data/Meeting_Upload.xlsx
+++ b/Test Data/Meeting_Upload.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t xml:space="preserve">Meeting Title (*)</t>
   </si>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">09:00 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:30 AM</t>
+    <t xml:space="preserve">10:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30 AM</t>
   </si>
   <si>
     <t xml:space="preserve">This for Automation Testing Framework Creation Meeting</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">adam.smith@webspiders.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ethan.taylor@yopmail.com</t>
+    <t xml:space="preserve">brucewills@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Topic (*)</t>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">Genium Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00 AM</t>
   </si>
   <si>
     <t xml:space="preserve">11:30 AM</t>
@@ -172,7 +169,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="H:MM:SS;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -245,11 +242,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,7 +310,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,10 +372,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -467,8 +455,8 @@
   </sheetPr>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,7 +465,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.57"/>
@@ -540,7 +528,7 @@
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -548,7 +536,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>43238</v>
+        <v>43403</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -594,7 +582,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId2" display="adam.smith@webspiders.com"/>
-    <hyperlink ref="J2" r:id="rId3" display="ethan.taylor@yopmail.com"/>
+    <hyperlink ref="J2" r:id="rId3" display="brucewills@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -614,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,7 +615,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="13" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="13" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.71"/>
@@ -703,14 +691,14 @@
       <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="16" t="n">
-        <v>43238</v>
+      <c r="F2" s="9" t="n">
+        <v>43403</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>18</v>
@@ -722,7 +710,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="adam.smith@webspiders.com"/>
-    <hyperlink ref="J2" r:id="rId2" display="ethan.taylor@yopmail.com"/>
+    <hyperlink ref="J2" r:id="rId2" display="brucewills@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
